--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itgam</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H2">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>0.095475407188</v>
+        <v>0.02149712855733334</v>
       </c>
       <c r="R2">
-        <v>0.8592786646920001</v>
+        <v>0.193474157016</v>
       </c>
       <c r="S2">
-        <v>6.116766617158719E-05</v>
+        <v>3.026635251925763E-05</v>
       </c>
       <c r="T2">
-        <v>6.116766617158719E-05</v>
+        <v>3.026635251925763E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H3">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>99.06446494484268</v>
+        <v>13.017871527416</v>
       </c>
       <c r="R3">
-        <v>891.5801845035842</v>
+        <v>117.160843746744</v>
       </c>
       <c r="S3">
-        <v>0.06346704664250591</v>
+        <v>0.01832819149070831</v>
       </c>
       <c r="T3">
-        <v>0.06346704664250589</v>
+        <v>0.01832819149070831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H4">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>103.6382315083187</v>
+        <v>0.0009581525084444444</v>
       </c>
       <c r="R4">
-        <v>932.744083574868</v>
+        <v>0.008623372576</v>
       </c>
       <c r="S4">
-        <v>0.06639729469843281</v>
+        <v>1.349007217891796E-06</v>
       </c>
       <c r="T4">
-        <v>0.06639729469843279</v>
+        <v>1.349007217891796E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.996041333333333</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H5">
-        <v>11.988124</v>
+        <v>0.451864</v>
       </c>
       <c r="I5">
-        <v>0.776116372746167</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J5">
-        <v>0.7761163727461668</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>0.5703270072173332</v>
+        <v>9.253121625844445</v>
       </c>
       <c r="R5">
-        <v>5.132943064955999</v>
+        <v>83.2780946326</v>
       </c>
       <c r="S5">
-        <v>0.0003653880408953616</v>
+        <v>0.01302770462038465</v>
       </c>
       <c r="T5">
-        <v>0.0003653880408953614</v>
+        <v>0.01302770462038465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>11.988124</v>
       </c>
       <c r="I6">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J6">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>591.7664189933902</v>
+        <v>0.5703270072173333</v>
       </c>
       <c r="R6">
-        <v>5325.897770940512</v>
+        <v>5.132943064956</v>
       </c>
       <c r="S6">
-        <v>0.3791235024247456</v>
+        <v>0.0008029778584454014</v>
       </c>
       <c r="T6">
-        <v>0.3791235024247455</v>
+        <v>0.0008029778584454013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J7">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,60 +868,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>619.0880369124582</v>
+        <v>345.369089121356</v>
       </c>
       <c r="R7">
-        <v>5571.792332212123</v>
+        <v>3108.321802092204</v>
       </c>
       <c r="S7">
-        <v>0.3966274822805262</v>
+        <v>0.4862539000370821</v>
       </c>
       <c r="T7">
-        <v>0.396627482280526</v>
+        <v>0.4862539000370821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1507453333333333</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H8">
-        <v>0.452236</v>
+        <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.02927795574563924</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J8">
-        <v>0.02927795574563923</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,60 +930,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>0.02151482620933333</v>
+        <v>0.02542015093511111</v>
       </c>
       <c r="R8">
-        <v>0.193633435884</v>
+        <v>0.228781358416</v>
       </c>
       <c r="S8">
-        <v>1.378377684968513E-05</v>
+        <v>3.578967522303586E-05</v>
       </c>
       <c r="T8">
-        <v>1.378377684968513E-05</v>
+        <v>3.578967522303585E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1507453333333333</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H9">
-        <v>0.452236</v>
+        <v>11.988124</v>
       </c>
       <c r="I9">
-        <v>0.02927795574563924</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J9">
-        <v>0.02927795574563923</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>22.32359944390756</v>
+        <v>245.4888405310111</v>
       </c>
       <c r="R9">
-        <v>200.912394995168</v>
+        <v>2209.3995647791</v>
       </c>
       <c r="S9">
-        <v>0.01430192882911098</v>
+        <v>0.3456299648224778</v>
       </c>
       <c r="T9">
-        <v>0.01430192882911098</v>
+        <v>0.3456299648224777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,217 +1021,217 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H10">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I10">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J10">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>23.35427106535955</v>
+        <v>0.06986928346066668</v>
       </c>
       <c r="R10">
-        <v>210.188439588236</v>
+        <v>0.6288235511460001</v>
       </c>
       <c r="S10">
-        <v>0.01496224313967857</v>
+        <v>9.837073625198604E-05</v>
       </c>
       <c r="T10">
-        <v>0.01496224313967857</v>
+        <v>9.837073625198601E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2657973333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H11">
-        <v>0.797392</v>
+        <v>1.468634</v>
       </c>
       <c r="I11">
-        <v>0.05162350562079702</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J11">
-        <v>0.05162350562079701</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.03793539280533333</v>
+        <v>42.31027196854601</v>
       </c>
       <c r="R11">
-        <v>0.341418535248</v>
+        <v>380.7924477169141</v>
       </c>
       <c r="S11">
-        <v>2.430384443017391E-05</v>
+        <v>0.05956970500364029</v>
       </c>
       <c r="T11">
-        <v>2.43038444301739E-05</v>
+        <v>0.05956970500364028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2657973333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H12">
-        <v>0.797392</v>
+        <v>1.468634</v>
       </c>
       <c r="I12">
-        <v>0.05162350562079702</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J12">
-        <v>0.05162350562079701</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>39.36143873503289</v>
+        <v>0.003114156806222223</v>
       </c>
       <c r="R12">
-        <v>354.252948615296</v>
+        <v>0.028027411256</v>
       </c>
       <c r="S12">
-        <v>0.02521746086756133</v>
+        <v>4.384500350639353E-06</v>
       </c>
       <c r="T12">
-        <v>0.02521746086756132</v>
+        <v>4.384500350639352E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2657973333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H13">
-        <v>0.797392</v>
+        <v>1.468634</v>
       </c>
       <c r="I13">
-        <v>0.05162350562079702</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J13">
-        <v>0.05162350562079701</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,60 +1240,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>41.17874055437689</v>
+        <v>30.07420158687222</v>
       </c>
       <c r="R13">
-        <v>370.608664989392</v>
+        <v>270.66781428185</v>
       </c>
       <c r="S13">
-        <v>0.02638174090880553</v>
+        <v>0.04234223117454365</v>
       </c>
       <c r="T13">
-        <v>0.02638174090880552</v>
+        <v>0.04234223117454364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06722566666666667</v>
+        <v>0.162559</v>
       </c>
       <c r="H14">
-        <v>0.201677</v>
+        <v>0.487677</v>
       </c>
       <c r="I14">
-        <v>0.01305665688028658</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J14">
-        <v>0.01305665688028658</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,54 +1308,54 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>0.009594648823666667</v>
+        <v>0.023200908157</v>
       </c>
       <c r="R14">
-        <v>0.08635183941299999</v>
+        <v>0.208808173413</v>
       </c>
       <c r="S14">
-        <v>6.146947088940174E-06</v>
+        <v>3.26651470299338E-05</v>
       </c>
       <c r="T14">
-        <v>6.146947088940173E-06</v>
+        <v>3.266514702993379E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06722566666666667</v>
+        <v>0.162559</v>
       </c>
       <c r="H15">
-        <v>0.201677</v>
+        <v>0.487677</v>
       </c>
       <c r="I15">
-        <v>0.01305665688028658</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J15">
-        <v>0.01305665688028658</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,152 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>9.955325460708446</v>
+        <v>14.049617878113</v>
       </c>
       <c r="R15">
-        <v>89.597929146376</v>
+        <v>126.446560903017</v>
       </c>
       <c r="S15">
-        <v>0.006378019663336434</v>
+        <v>0.01978081334563975</v>
       </c>
       <c r="T15">
-        <v>0.006378019663336432</v>
+        <v>0.01978081334563974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.162559</v>
+      </c>
+      <c r="H16">
+        <v>0.487677</v>
+      </c>
+      <c r="I16">
+        <v>0.03387516472115508</v>
+      </c>
+      <c r="J16">
+        <v>0.03387516472115507</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.001034091985333333</v>
+      </c>
+      <c r="R16">
+        <v>0.009306827868</v>
+      </c>
+      <c r="S16">
+        <v>1.455924333427354E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.455924333427353E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.201677</v>
-      </c>
-      <c r="I16">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J16">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>10.41495883929744</v>
-      </c>
-      <c r="R16">
-        <v>93.73462955367698</v>
-      </c>
-      <c r="S16">
-        <v>0.006672490269861213</v>
-      </c>
-      <c r="T16">
-        <v>0.006672490269861211</v>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.162559</v>
+      </c>
+      <c r="H17">
+        <v>0.487677</v>
+      </c>
+      <c r="I17">
+        <v>0.03387516472115508</v>
+      </c>
+      <c r="J17">
+        <v>0.03387516472115507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>9.986488401658335</v>
+      </c>
+      <c r="R17">
+        <v>89.87839561492501</v>
+      </c>
+      <c r="S17">
+        <v>0.01406023030415197</v>
+      </c>
+      <c r="T17">
+        <v>0.01406023030415197</v>
       </c>
     </row>
   </sheetData>
